--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H2">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I2">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J2">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N2">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O2">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P2">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q2">
-        <v>77.73044672134135</v>
+        <v>135.2270560254661</v>
       </c>
       <c r="R2">
-        <v>77.73044672134135</v>
+        <v>1217.043504229195</v>
       </c>
       <c r="S2">
-        <v>0.0003057799553178685</v>
+        <v>0.0004933018519276248</v>
       </c>
       <c r="T2">
-        <v>0.0003057799553178685</v>
+        <v>0.0004933018519276249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H3">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I3">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J3">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N3">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P3">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q3">
-        <v>1.099962711540918</v>
+        <v>2.039807065041667</v>
       </c>
       <c r="R3">
-        <v>1.099962711540918</v>
+        <v>18.358263585375</v>
       </c>
       <c r="S3">
-        <v>4.327088843218463E-06</v>
+        <v>7.44111890279273E-06</v>
       </c>
       <c r="T3">
-        <v>4.327088843218463E-06</v>
+        <v>7.44111890279273E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H4">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I4">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J4">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N4">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O4">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P4">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q4">
-        <v>1594.165686749005</v>
+        <v>2199.708939330017</v>
       </c>
       <c r="R4">
-        <v>1594.165686749005</v>
+        <v>19797.38045397015</v>
       </c>
       <c r="S4">
-        <v>0.006271209455555001</v>
+        <v>0.008024433315097073</v>
       </c>
       <c r="T4">
-        <v>0.006271209455555001</v>
+        <v>0.008024433315097074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H5">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I5">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J5">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N5">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O5">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P5">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q5">
-        <v>1885.364351843157</v>
+        <v>2442.836844778834</v>
       </c>
       <c r="R5">
-        <v>1885.364351843157</v>
+        <v>21985.53160300951</v>
       </c>
       <c r="S5">
-        <v>0.007416741464657237</v>
+        <v>0.008911352320348506</v>
       </c>
       <c r="T5">
-        <v>0.007416741464657237</v>
+        <v>0.008911352320348507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H6">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I6">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J6">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N6">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O6">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P6">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q6">
-        <v>3201.870904963087</v>
+        <v>4161.476239562453</v>
       </c>
       <c r="R6">
-        <v>3201.870904963087</v>
+        <v>37453.28615606208</v>
       </c>
       <c r="S6">
-        <v>0.01259568140349292</v>
+        <v>0.01518086687727912</v>
       </c>
       <c r="T6">
-        <v>0.01259568140349292</v>
+        <v>0.01518086687727913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H7">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I7">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J7">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N7">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O7">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P7">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q7">
-        <v>184.4371071765855</v>
+        <v>303.3134530947489</v>
       </c>
       <c r="R7">
-        <v>184.4371071765855</v>
+        <v>2729.82107785274</v>
       </c>
       <c r="S7">
-        <v>0.0007255480030057397</v>
+        <v>0.001106473013048697</v>
       </c>
       <c r="T7">
-        <v>0.0007255480030057397</v>
+        <v>0.001106473013048697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H8">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I8">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J8">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N8">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O8">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P8">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q8">
-        <v>1371.369786176553</v>
+        <v>1888.736428369225</v>
       </c>
       <c r="R8">
-        <v>1371.369786176553</v>
+        <v>16998.62785532302</v>
       </c>
       <c r="S8">
-        <v>0.005394763694651583</v>
+        <v>0.006890020424183783</v>
       </c>
       <c r="T8">
-        <v>0.005394763694651583</v>
+        <v>0.006890020424183785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H9">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I9">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J9">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N9">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P9">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q9">
-        <v>19.4062390241467</v>
+        <v>28.49028902813334</v>
       </c>
       <c r="R9">
-        <v>19.4062390241467</v>
+        <v>256.4126012532</v>
       </c>
       <c r="S9">
-        <v>7.634124274320205E-05</v>
+        <v>0.0001039312157833617</v>
       </c>
       <c r="T9">
-        <v>7.634124274320205E-05</v>
+        <v>0.0001039312157833618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H10">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I10">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J10">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N10">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O10">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P10">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q10">
-        <v>28125.28100866748</v>
+        <v>30723.66231754405</v>
       </c>
       <c r="R10">
-        <v>28125.28100866748</v>
+        <v>276512.9608578965</v>
       </c>
       <c r="S10">
-        <v>0.1106406502584993</v>
+        <v>0.1120784550422311</v>
       </c>
       <c r="T10">
-        <v>0.1106406502584993</v>
+        <v>0.1120784550422311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H11">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I11">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J11">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N11">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O11">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P11">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q11">
-        <v>33262.79234340452</v>
+        <v>34119.4659774848</v>
       </c>
       <c r="R11">
-        <v>33262.79234340452</v>
+        <v>307075.1937973632</v>
       </c>
       <c r="S11">
-        <v>0.1308508517000616</v>
+        <v>0.1244661848610027</v>
       </c>
       <c r="T11">
-        <v>0.1308508517000616</v>
+        <v>0.1244661848610028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H12">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I12">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J12">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N12">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O12">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P12">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q12">
-        <v>56489.4350092368</v>
+        <v>58123.95832956972</v>
       </c>
       <c r="R12">
-        <v>56489.4350092368</v>
+        <v>523115.6249661274</v>
       </c>
       <c r="S12">
-        <v>0.2222209911513808</v>
+        <v>0.212033428280367</v>
       </c>
       <c r="T12">
-        <v>0.2222209911513808</v>
+        <v>0.212033428280367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.556546732602</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H13">
-        <v>122.556546732602</v>
+        <v>370.284272</v>
       </c>
       <c r="I13">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J13">
-        <v>0.481984175577912</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N13">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O13">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P13">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q13">
-        <v>3253.956292551865</v>
+        <v>4236.424166230663</v>
       </c>
       <c r="R13">
-        <v>3253.956292551865</v>
+        <v>38127.81749607596</v>
       </c>
       <c r="S13">
-        <v>0.01280057753057561</v>
+        <v>0.01545427333978912</v>
       </c>
       <c r="T13">
-        <v>0.01280057753057561</v>
+        <v>0.01545427333978912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H14">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I14">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J14">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N14">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O14">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P14">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q14">
-        <v>312.9306825150202</v>
+        <v>471.7089852861785</v>
       </c>
       <c r="R14">
-        <v>312.9306825150202</v>
+        <v>4245.380867575606</v>
       </c>
       <c r="S14">
-        <v>0.00123102251631292</v>
+        <v>0.001720771884353906</v>
       </c>
       <c r="T14">
-        <v>0.00123102251631292</v>
+        <v>0.001720771884353907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H15">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I15">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J15">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N15">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O15">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P15">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q15">
-        <v>4.428278706509301</v>
+        <v>7.115405371608334</v>
       </c>
       <c r="R15">
-        <v>4.428278706509301</v>
+        <v>64.03864834447501</v>
       </c>
       <c r="S15">
-        <v>1.742018632500298E-05</v>
+        <v>2.595665948957098E-05</v>
       </c>
       <c r="T15">
-        <v>1.742018632500298E-05</v>
+        <v>2.595665948957098E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H16">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I16">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J16">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N16">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O16">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P16">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q16">
-        <v>6417.862979545004</v>
+        <v>7673.186876899043</v>
       </c>
       <c r="R16">
-        <v>6417.862979545004</v>
+        <v>69058.68189209139</v>
       </c>
       <c r="S16">
-        <v>0.02524691337690037</v>
+        <v>0.02799141982243711</v>
       </c>
       <c r="T16">
-        <v>0.02524691337690037</v>
+        <v>0.02799141982243712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H17">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I17">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J17">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N17">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O17">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P17">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q17">
-        <v>7590.18349047752</v>
+        <v>8521.283559211037</v>
       </c>
       <c r="R17">
-        <v>7590.18349047752</v>
+        <v>76691.55203289932</v>
       </c>
       <c r="S17">
-        <v>0.02985864698414779</v>
+        <v>0.03108523607707326</v>
       </c>
       <c r="T17">
-        <v>0.02985864698414779</v>
+        <v>0.03108523607707327</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H18">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I18">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J18">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N18">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O18">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P18">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q18">
-        <v>12890.2340058209</v>
+        <v>14516.36818808561</v>
       </c>
       <c r="R18">
-        <v>12890.2340058209</v>
+        <v>130647.3136927705</v>
       </c>
       <c r="S18">
-        <v>0.05070825325971789</v>
+        <v>0.052955018920898</v>
       </c>
       <c r="T18">
-        <v>0.05070825325971789</v>
+        <v>0.05295501892089802</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.9659827730663</v>
+        <v>30.82597366666667</v>
       </c>
       <c r="H19">
-        <v>27.9659827730663</v>
+        <v>92.47792099999999</v>
       </c>
       <c r="I19">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="J19">
-        <v>0.1099831996777107</v>
+        <v>0.1176380840936279</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N19">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O19">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P19">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q19">
-        <v>742.515092403535</v>
+        <v>1058.04034627528</v>
       </c>
       <c r="R19">
-        <v>742.515092403535</v>
+        <v>9522.363116477523</v>
       </c>
       <c r="S19">
-        <v>0.002920943354306738</v>
+        <v>0.003859680729376007</v>
       </c>
       <c r="T19">
-        <v>0.002920943354306738</v>
+        <v>0.003859680729376008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H20">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I20">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J20">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N20">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O20">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P20">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q20">
-        <v>284.2602697569943</v>
+        <v>393.8148189982434</v>
       </c>
       <c r="R20">
-        <v>284.2602697569943</v>
+        <v>3544.333370984191</v>
       </c>
       <c r="S20">
-        <v>0.001118237399259334</v>
+        <v>0.001436617680205881</v>
       </c>
       <c r="T20">
-        <v>0.001118237399259334</v>
+        <v>0.001436617680205881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H21">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I21">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J21">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N21">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O21">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P21">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q21">
-        <v>4.022564005404193</v>
+        <v>5.940425486741668</v>
       </c>
       <c r="R21">
-        <v>4.022564005404193</v>
+        <v>53.46382938067501</v>
       </c>
       <c r="S21">
-        <v>1.58241653524172E-05</v>
+        <v>2.167038889980616E-05</v>
       </c>
       <c r="T21">
-        <v>1.58241653524172E-05</v>
+        <v>2.167038889980617E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H22">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I22">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J22">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N22">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O22">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P22">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q22">
-        <v>5829.864451662787</v>
+        <v>6406.099513309897</v>
       </c>
       <c r="R22">
-        <v>5829.864451662787</v>
+        <v>57654.89561978907</v>
       </c>
       <c r="S22">
-        <v>0.02293381508444668</v>
+        <v>0.02336914554254074</v>
       </c>
       <c r="T22">
-        <v>0.02293381508444668</v>
+        <v>0.02336914554254075</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H23">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I23">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J23">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N23">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O23">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P23">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q23">
-        <v>6894.778067678497</v>
+        <v>7114.14844147496</v>
       </c>
       <c r="R23">
-        <v>6894.778067678497</v>
+        <v>64027.33597327464</v>
       </c>
       <c r="S23">
-        <v>0.02712302602633196</v>
+        <v>0.02595207426838254</v>
       </c>
       <c r="T23">
-        <v>0.02712302602633196</v>
+        <v>0.02595207426838255</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H24">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I24">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J24">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N24">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O24">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P24">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q24">
-        <v>11709.24297443909</v>
+        <v>12119.25379592785</v>
       </c>
       <c r="R24">
-        <v>11709.24297443909</v>
+        <v>109073.2841633507</v>
       </c>
       <c r="S24">
-        <v>0.04606241112141993</v>
+        <v>0.04421045992738493</v>
       </c>
       <c r="T24">
-        <v>0.04606241112141993</v>
+        <v>0.04421045992738494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.4037659177435</v>
+        <v>25.73562433333333</v>
       </c>
       <c r="H25">
-        <v>25.4037659177435</v>
+        <v>77.206873</v>
       </c>
       <c r="I25">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="J25">
-        <v>0.09990664308739619</v>
+        <v>0.09821229240847713</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N25">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O25">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P25">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q25">
-        <v>674.4865628672814</v>
+        <v>883.3242114488236</v>
       </c>
       <c r="R25">
-        <v>674.4865628672814</v>
+        <v>7949.917903039412</v>
       </c>
       <c r="S25">
-        <v>0.002653329290585878</v>
+        <v>0.003222324601063218</v>
       </c>
       <c r="T25">
-        <v>0.002653329290585878</v>
+        <v>0.003222324601063219</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H26">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I26">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J26">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N26">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O26">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P26">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q26">
-        <v>390.1954757273869</v>
+        <v>547.0526114953348</v>
       </c>
       <c r="R26">
-        <v>390.1954757273869</v>
+        <v>4923.473503458013</v>
       </c>
       <c r="S26">
-        <v>0.001534970660349962</v>
+        <v>0.0019956218399199</v>
       </c>
       <c r="T26">
-        <v>0.001534970660349962</v>
+        <v>0.0019956218399199</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H27">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I27">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J27">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N27">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O27">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P27">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q27">
-        <v>5.521651960276915</v>
+        <v>8.251912114891669</v>
       </c>
       <c r="R27">
-        <v>5.521651960276915</v>
+        <v>74.26720903402502</v>
       </c>
       <c r="S27">
-        <v>2.172135322658237E-05</v>
+        <v>3.010258189347454E-05</v>
       </c>
       <c r="T27">
-        <v>2.172135322658237E-05</v>
+        <v>3.010258189347454E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H28">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I28">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J28">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N28">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O28">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P28">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q28">
-        <v>8002.478626673334</v>
+        <v>8898.785162959559</v>
       </c>
       <c r="R28">
-        <v>8002.478626673334</v>
+        <v>80089.06646663602</v>
       </c>
       <c r="S28">
-        <v>0.03148055440448836</v>
+        <v>0.03246234392596205</v>
       </c>
       <c r="T28">
-        <v>0.03148055440448836</v>
+        <v>0.03246234392596206</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H29">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I29">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J29">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N29">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O29">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P29">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q29">
-        <v>9464.253342376804</v>
+        <v>9882.343923405539</v>
       </c>
       <c r="R29">
-        <v>9464.253342376804</v>
+        <v>88941.09531064983</v>
       </c>
       <c r="S29">
-        <v>0.03723095757475441</v>
+        <v>0.03605031938197042</v>
       </c>
       <c r="T29">
-        <v>0.03723095757475441</v>
+        <v>0.03605031938197043</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H30">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I30">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J30">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N30">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O30">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P30">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q30">
-        <v>16072.92372136506</v>
+        <v>16834.9922821636</v>
       </c>
       <c r="R30">
-        <v>16072.92372136506</v>
+        <v>151514.9305394723</v>
       </c>
       <c r="S30">
-        <v>0.06322847873196563</v>
+        <v>0.06141324904991361</v>
       </c>
       <c r="T30">
-        <v>0.06322847873196563</v>
+        <v>0.06141324904991362</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.8709812173715</v>
+        <v>35.74964633333334</v>
       </c>
       <c r="H31">
-        <v>34.8709812173715</v>
+        <v>107.248939</v>
       </c>
       <c r="I31">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="J31">
-        <v>0.1371388276002775</v>
+        <v>0.1364278042651323</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N31">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O31">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P31">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q31">
-        <v>925.8473070989312</v>
+        <v>1227.035635427146</v>
       </c>
       <c r="R31">
-        <v>925.8473070989312</v>
+        <v>11043.32071884432</v>
       </c>
       <c r="S31">
-        <v>0.003642144875492551</v>
+        <v>0.004476167485472808</v>
       </c>
       <c r="T31">
-        <v>0.003642144875492551</v>
+        <v>0.004476167485472809</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H32">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I32">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J32">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N32">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O32">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P32">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q32">
-        <v>408.7722825778587</v>
+        <v>573.2923656311261</v>
       </c>
       <c r="R32">
-        <v>408.7722825778587</v>
+        <v>5159.631290680136</v>
       </c>
       <c r="S32">
-        <v>0.001608049040936784</v>
+        <v>0.00209134321173527</v>
       </c>
       <c r="T32">
-        <v>0.001608049040936784</v>
+        <v>0.00209134321173527</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H33">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I33">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J33">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N33">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O33">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P33">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q33">
-        <v>5.784532153263207</v>
+        <v>8.647720745533334</v>
       </c>
       <c r="R33">
-        <v>5.784532153263207</v>
+        <v>77.82948670980001</v>
       </c>
       <c r="S33">
-        <v>2.275548460052738E-05</v>
+        <v>3.154647290347849E-05</v>
       </c>
       <c r="T33">
-        <v>2.275548460052738E-05</v>
+        <v>3.154647290347849E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H34">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I34">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J34">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N34">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O34">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P34">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q34">
-        <v>8383.468435680248</v>
+        <v>9325.621503517414</v>
       </c>
       <c r="R34">
-        <v>8383.468435680248</v>
+        <v>83930.59353165672</v>
       </c>
       <c r="S34">
-        <v>0.03297931134837084</v>
+        <v>0.03401942254214925</v>
       </c>
       <c r="T34">
-        <v>0.03297931134837084</v>
+        <v>0.03401942254214926</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H35">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I35">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J35">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N35">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O35">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P35">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q35">
-        <v>9914.836748033975</v>
+        <v>10356.35733525396</v>
       </c>
       <c r="R35">
-        <v>9914.836748033975</v>
+        <v>93207.21601728565</v>
       </c>
       <c r="S35">
-        <v>0.03900348532237886</v>
+        <v>0.03777949770453425</v>
       </c>
       <c r="T35">
-        <v>0.03900348532237886</v>
+        <v>0.03777949770453425</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H36">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I36">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J36">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N36">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O36">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P36">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q36">
-        <v>16838.13915329071</v>
+        <v>17642.49424647089</v>
       </c>
       <c r="R36">
-        <v>16838.13915329071</v>
+        <v>158782.448218238</v>
       </c>
       <c r="S36">
-        <v>0.06623872182784796</v>
+        <v>0.06435897770907312</v>
       </c>
       <c r="T36">
-        <v>0.06623872182784796</v>
+        <v>0.06435897770907313</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.5311529083783</v>
+        <v>37.46440266666666</v>
       </c>
       <c r="H37">
-        <v>36.5311529083783</v>
+        <v>112.393208</v>
       </c>
       <c r="I37">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="J37">
-        <v>0.1436678666858316</v>
+        <v>0.1429716575728017</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N37">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O37">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P37">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q37">
-        <v>969.925948874426</v>
+        <v>1285.891242205906</v>
       </c>
       <c r="R37">
-        <v>969.925948874426</v>
+        <v>11573.02117985315</v>
       </c>
       <c r="S37">
-        <v>0.003815543661696651</v>
+        <v>0.004690869932406345</v>
       </c>
       <c r="T37">
-        <v>0.003815543661696651</v>
+        <v>0.004690869932406346</v>
       </c>
     </row>
   </sheetData>
